--- a/Diclofenac/Data/PAM_D.xlsx
+++ b/Diclofenac/Data/PAM_D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4795f5e3347afba5/Desktop/Dissertation/Lake_Murray/2024-25_Lake_Murray_Bioassays/Diclofenac/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18C897E-8FF4-46ED-ADDD-278AC9F6D613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B18C897E-8FF4-46ED-ADDD-278AC9F6D613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191E2F18-8F21-4491-9238-33C35A4FD587}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8442FD4B-7D95-4FA7-BEF3-883AEF245E3C}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8442FD4B-7D95-4FA7-BEF3-883AEF245E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>Month</t>
   </si>
   <si>
-    <t>May</t>
+    <t>June</t>
   </si>
 </sst>
 </file>
@@ -158,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +484,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +515,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -531,7 +535,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -551,7 +555,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -571,7 +575,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -591,7 +595,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -611,7 +615,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -631,7 +635,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -646,12 +650,12 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>0.65600000000000003</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -666,12 +670,12 @@
         <v>15</v>
       </c>
       <c r="F9">
-        <v>0.64900000000000002</v>
+        <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -691,7 +695,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -711,7 +715,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -731,7 +735,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -751,7 +755,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -771,7 +775,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -791,7 +795,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -811,7 +815,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -831,7 +835,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -851,7 +855,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -871,7 +875,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -891,7 +895,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -911,7 +915,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -931,7 +935,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -951,7 +955,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -971,7 +975,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -991,7 +995,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1011,7 +1015,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1031,7 +1035,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1051,7 +1055,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1071,7 +1075,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1091,7 +1095,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1111,7 +1115,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -1131,7 +1135,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -1151,7 +1155,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -1171,7 +1175,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -1191,7 +1195,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -1211,7 +1215,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -1231,7 +1235,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -1251,7 +1255,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -1271,7 +1275,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -1291,7 +1295,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -1311,7 +1315,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -1331,7 +1335,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -1351,7 +1355,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -1371,7 +1375,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1391,7 +1395,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
